--- a/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -232,8 +232,8 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,7 +279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -287,7 +287,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -308,7 +308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -316,7 +316,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -337,7 +337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -345,7 +345,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -366,7 +366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -374,7 +374,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -403,7 +403,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -432,7 +432,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -461,7 +461,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>22</v>
       </c>
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>22</v>
       </c>
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
@@ -664,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>27</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>27</v>
       </c>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
@@ -896,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
@@ -983,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>14</v>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>14</v>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>22</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>14</v>
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>14</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>14</v>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>14</v>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>14</v>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>14</v>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>14</v>
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>14</v>
@@ -1468,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>14</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>14</v>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>27</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>14</v>

--- a/bioSample/bioSample_0711_5_0718_7.xlsx
+++ b/bioSample/bioSample_0711_5_0718_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5137395E-7234-0940-8060-6A62230E0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B144B-9C67-0641-81E0-B1A8584A6DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="36">
   <si>
     <t>harvestDate</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>DMEM</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,7 +521,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
